--- a/contract years left.xlsx
+++ b/contract years left.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sumailsyr-my.sharepoint.com/personal/idferran_syr_edu/Documents/Fall Semester 2024/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sumailsyr-my.sharepoint.com/personal/idferran_syr_edu/Documents/wnba-CMU/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F68B63E4-B903-284F-8B57-7D8140FF0C39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{F68B63E4-B903-284F-8B57-7D8140FF0C39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3062DC22-22A9-BC48-A733-89294D1A534F}"/>
   <bookViews>
     <workbookView xWindow="17160" yWindow="1080" windowWidth="28040" windowHeight="17440" xr2:uid="{4E38D3E2-8E35-D44E-94DA-D92B331F6E6C}"/>
   </bookViews>
@@ -642,10 +642,10 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="16"/>
+      <sz val="12"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <name val="Aptos Display"/>
+      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="2">
@@ -677,8 +677,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1016,7 +1016,7 @@
   <dimension ref="A1:G181"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1027,13 +1027,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="20" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="9" t="s">
         <v>183</v>
       </c>
       <c r="D1" s="1"/>
@@ -1042,13 +1042,13 @@
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="6">
-        <v>0</v>
-      </c>
-      <c r="C2" s="6">
+      <c r="A2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="9">
+        <v>0</v>
+      </c>
+      <c r="C2" s="9">
         <v>1</v>
       </c>
       <c r="D2" s="3"/>
@@ -1057,13 +1057,13 @@
       <c r="G2" s="4"/>
     </row>
     <row r="3" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="6">
-        <v>0</v>
-      </c>
-      <c r="C3" s="6">
+      <c r="A3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="9">
+        <v>0</v>
+      </c>
+      <c r="C3" s="9">
         <v>1</v>
       </c>
       <c r="D3" s="3"/>
@@ -1072,13 +1072,13 @@
       <c r="G3" s="4"/>
     </row>
     <row r="4" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="6">
-        <v>0</v>
-      </c>
-      <c r="C4" s="6">
+      <c r="B4" s="9">
+        <v>0</v>
+      </c>
+      <c r="C4" s="9">
         <v>1</v>
       </c>
       <c r="D4" s="3"/>
@@ -1087,13 +1087,13 @@
       <c r="G4" s="4"/>
     </row>
     <row r="5" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="6">
-        <v>0</v>
-      </c>
-      <c r="C5" s="6">
+      <c r="B5" s="9">
+        <v>0</v>
+      </c>
+      <c r="C5" s="9">
         <v>1</v>
       </c>
       <c r="D5" s="3"/>
@@ -1102,13 +1102,13 @@
       <c r="G5" s="4"/>
     </row>
     <row r="6" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="6">
-        <v>0</v>
-      </c>
-      <c r="C6" s="6">
+      <c r="B6" s="9">
+        <v>0</v>
+      </c>
+      <c r="C6" s="9">
         <v>1</v>
       </c>
       <c r="D6" s="3"/>
@@ -1117,13 +1117,13 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="6">
-        <v>0</v>
-      </c>
-      <c r="C7" s="6">
+      <c r="B7" s="9">
+        <v>0</v>
+      </c>
+      <c r="C7" s="9">
         <v>0</v>
       </c>
       <c r="D7" s="3"/>
@@ -1132,13 +1132,13 @@
       <c r="G7" s="4"/>
     </row>
     <row r="8" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="6">
-        <v>0</v>
-      </c>
-      <c r="C8" s="6">
+      <c r="B8" s="9">
+        <v>0</v>
+      </c>
+      <c r="C8" s="9">
         <v>1</v>
       </c>
       <c r="D8" s="3"/>
@@ -1147,13 +1147,13 @@
       <c r="G8" s="4"/>
     </row>
     <row r="9" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="6">
-        <v>1</v>
-      </c>
-      <c r="C9" s="6">
+      <c r="B9" s="9">
+        <v>1</v>
+      </c>
+      <c r="C9" s="9">
         <v>0</v>
       </c>
       <c r="D9" s="2"/>
@@ -1162,13 +1162,13 @@
       <c r="G9" s="4"/>
     </row>
     <row r="10" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="6">
-        <v>0</v>
-      </c>
-      <c r="C10" s="6">
+      <c r="B10" s="9">
+        <v>0</v>
+      </c>
+      <c r="C10" s="9">
         <v>0</v>
       </c>
       <c r="D10" s="3"/>
@@ -1177,13 +1177,13 @@
       <c r="G10" s="4"/>
     </row>
     <row r="11" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="9">
         <v>2</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="9">
         <v>0</v>
       </c>
       <c r="D11" s="5"/>
@@ -1192,13 +1192,13 @@
       <c r="G11" s="4"/>
     </row>
     <row r="12" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="9">
         <v>3</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="9">
         <v>0</v>
       </c>
       <c r="D12" s="4"/>
@@ -1207,13 +1207,13 @@
       <c r="G12" s="4"/>
     </row>
     <row r="13" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="6">
-        <v>0</v>
-      </c>
-      <c r="C13" s="6">
+      <c r="B13" s="9">
+        <v>0</v>
+      </c>
+      <c r="C13" s="9">
         <v>1</v>
       </c>
       <c r="D13" s="3"/>
@@ -1222,13 +1222,13 @@
       <c r="G13" s="4"/>
     </row>
     <row r="14" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="6">
-        <v>0</v>
-      </c>
-      <c r="C14" s="6">
+      <c r="B14" s="9">
+        <v>0</v>
+      </c>
+      <c r="C14" s="9">
         <v>1</v>
       </c>
       <c r="D14" s="3"/>
@@ -1237,13 +1237,13 @@
       <c r="G14" s="4"/>
     </row>
     <row r="15" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="6">
-        <v>0</v>
-      </c>
-      <c r="C15" s="6">
+      <c r="B15" s="9">
+        <v>0</v>
+      </c>
+      <c r="C15" s="9">
         <v>1</v>
       </c>
       <c r="D15" s="3"/>
@@ -1252,13 +1252,13 @@
       <c r="G15" s="4"/>
     </row>
     <row r="16" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="6">
-        <v>0</v>
-      </c>
-      <c r="C16" s="6">
+      <c r="B16" s="9">
+        <v>0</v>
+      </c>
+      <c r="C16" s="9">
         <v>1</v>
       </c>
       <c r="D16" s="3"/>
@@ -1267,13 +1267,13 @@
       <c r="G16" s="4"/>
     </row>
     <row r="17" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="6">
-        <v>0</v>
-      </c>
-      <c r="C17" s="6">
+      <c r="B17" s="9">
+        <v>0</v>
+      </c>
+      <c r="C17" s="9">
         <v>1</v>
       </c>
       <c r="D17" s="3"/>
@@ -1282,13 +1282,13 @@
       <c r="G17" s="4"/>
     </row>
     <row r="18" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="6">
-        <v>0</v>
-      </c>
-      <c r="C18" s="6">
+      <c r="B18" s="9">
+        <v>0</v>
+      </c>
+      <c r="C18" s="9">
         <v>1</v>
       </c>
       <c r="D18" s="3"/>
@@ -1297,13 +1297,13 @@
       <c r="G18" s="4"/>
     </row>
     <row r="19" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="6">
-        <v>1</v>
-      </c>
-      <c r="C19" s="6">
+      <c r="B19" s="9">
+        <v>1</v>
+      </c>
+      <c r="C19" s="9">
         <v>0</v>
       </c>
       <c r="D19" s="2"/>
@@ -1312,13 +1312,13 @@
       <c r="G19" s="4"/>
     </row>
     <row r="20" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="6">
-        <v>0</v>
-      </c>
-      <c r="C20" s="6">
+      <c r="B20" s="9">
+        <v>0</v>
+      </c>
+      <c r="C20" s="9">
         <v>1</v>
       </c>
       <c r="D20" s="3"/>
@@ -1327,13 +1327,13 @@
       <c r="G20" s="4"/>
     </row>
     <row r="21" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B21" s="9">
         <v>3</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C21" s="9">
         <v>0</v>
       </c>
       <c r="D21" s="4"/>
@@ -1342,13 +1342,13 @@
       <c r="G21" s="4"/>
     </row>
     <row r="22" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="6">
-        <v>0</v>
-      </c>
-      <c r="C22" s="6">
+      <c r="B22" s="9">
+        <v>0</v>
+      </c>
+      <c r="C22" s="9">
         <v>1</v>
       </c>
       <c r="D22" s="3"/>
@@ -1357,13 +1357,13 @@
       <c r="G22" s="4"/>
     </row>
     <row r="23" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="6">
-        <v>1</v>
-      </c>
-      <c r="C23" s="6">
+      <c r="B23" s="9">
+        <v>1</v>
+      </c>
+      <c r="C23" s="9">
         <v>0</v>
       </c>
       <c r="D23" s="2"/>
@@ -1372,13 +1372,13 @@
       <c r="G23" s="4"/>
     </row>
     <row r="24" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A24" s="9" t="s">
+      <c r="A24" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="6">
+      <c r="B24" s="9">
         <v>2</v>
       </c>
-      <c r="C24" s="6">
+      <c r="C24" s="9">
         <v>0</v>
       </c>
       <c r="D24" s="5"/>
@@ -1387,13 +1387,13 @@
       <c r="G24" s="4"/>
     </row>
     <row r="25" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A25" s="9" t="s">
+      <c r="A25" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="6">
-        <v>0</v>
-      </c>
-      <c r="C25" s="6">
+      <c r="B25" s="9">
+        <v>0</v>
+      </c>
+      <c r="C25" s="9">
         <v>0</v>
       </c>
       <c r="D25" s="3"/>
@@ -1402,13 +1402,13 @@
       <c r="G25" s="4"/>
     </row>
     <row r="26" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A26" s="9" t="s">
+      <c r="A26" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="6">
-        <v>0</v>
-      </c>
-      <c r="C26" s="6">
+      <c r="B26" s="9">
+        <v>0</v>
+      </c>
+      <c r="C26" s="9">
         <v>0</v>
       </c>
       <c r="D26" s="3"/>
@@ -1416,25 +1416,25 @@
       <c r="F26" s="3"/>
       <c r="G26" s="4"/>
     </row>
-    <row r="27" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A27" s="9" t="s">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="6">
-        <v>0</v>
-      </c>
-      <c r="C27" s="6">
+      <c r="B27" s="9">
+        <v>0</v>
+      </c>
+      <c r="C27" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A28" s="9" t="s">
+      <c r="A28" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B28" s="6">
-        <v>0</v>
-      </c>
-      <c r="C28" s="6">
+      <c r="B28" s="9">
+        <v>0</v>
+      </c>
+      <c r="C28" s="9">
         <v>1</v>
       </c>
       <c r="D28" s="6"/>
@@ -1443,13 +1443,13 @@
       <c r="G28" s="4"/>
     </row>
     <row r="29" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A29" s="9" t="s">
+      <c r="A29" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B29" s="6">
-        <v>0</v>
-      </c>
-      <c r="C29" s="6">
+      <c r="B29" s="9">
+        <v>0</v>
+      </c>
+      <c r="C29" s="9">
         <v>1</v>
       </c>
       <c r="D29" s="6"/>
@@ -1458,13 +1458,13 @@
       <c r="G29" s="4"/>
     </row>
     <row r="30" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A30" s="9" t="s">
+      <c r="A30" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B30" s="6">
-        <v>0</v>
-      </c>
-      <c r="C30" s="6">
+      <c r="B30" s="9">
+        <v>0</v>
+      </c>
+      <c r="C30" s="9">
         <v>0</v>
       </c>
       <c r="D30" s="6"/>
@@ -1473,13 +1473,13 @@
       <c r="G30" s="4"/>
     </row>
     <row r="31" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A31" s="9" t="s">
+      <c r="A31" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B31" s="6">
+      <c r="B31" s="9">
         <v>3</v>
       </c>
-      <c r="C31" s="6">
+      <c r="C31" s="9">
         <v>0</v>
       </c>
       <c r="D31" s="6"/>
@@ -1490,13 +1490,13 @@
       <c r="G31" s="4"/>
     </row>
     <row r="32" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A32" s="9" t="s">
+      <c r="A32" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B32" s="6">
+      <c r="B32" s="9">
         <v>3</v>
       </c>
-      <c r="C32" s="6">
+      <c r="C32" s="9">
         <v>0</v>
       </c>
       <c r="D32" s="6"/>
@@ -1507,13 +1507,13 @@
       <c r="G32" s="4"/>
     </row>
     <row r="33" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A33" s="9" t="s">
+      <c r="A33" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B33" s="6">
-        <v>0</v>
-      </c>
-      <c r="C33" s="6">
+      <c r="B33" s="9">
+        <v>0</v>
+      </c>
+      <c r="C33" s="9">
         <v>0</v>
       </c>
       <c r="D33" s="6"/>
@@ -1522,13 +1522,13 @@
       <c r="G33" s="4"/>
     </row>
     <row r="34" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A34" s="9" t="s">
+      <c r="A34" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B34" s="6">
+      <c r="B34" s="9">
         <v>3</v>
       </c>
-      <c r="C34" s="6">
+      <c r="C34" s="9">
         <v>0</v>
       </c>
       <c r="D34" s="6"/>
@@ -1539,13 +1539,13 @@
       <c r="G34" s="4"/>
     </row>
     <row r="35" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A35" s="9" t="s">
+      <c r="A35" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B35" s="6">
+      <c r="B35" s="9">
         <v>2</v>
       </c>
-      <c r="C35" s="6">
+      <c r="C35" s="9">
         <v>0</v>
       </c>
       <c r="D35" s="6"/>
@@ -1554,13 +1554,13 @@
       <c r="G35" s="4"/>
     </row>
     <row r="36" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A36" s="9" t="s">
+      <c r="A36" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B36" s="6">
+      <c r="B36" s="9">
         <v>3</v>
       </c>
-      <c r="C36" s="6">
+      <c r="C36" s="9">
         <v>0</v>
       </c>
       <c r="D36" s="6"/>
@@ -1571,13 +1571,13 @@
       <c r="G36" s="4"/>
     </row>
     <row r="37" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A37" s="9" t="s">
+      <c r="A37" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B37" s="6">
-        <v>0</v>
-      </c>
-      <c r="C37" s="6">
+      <c r="B37" s="9">
+        <v>0</v>
+      </c>
+      <c r="C37" s="9">
         <v>1</v>
       </c>
       <c r="D37" s="6"/>
@@ -1586,13 +1586,13 @@
       <c r="G37" s="4"/>
     </row>
     <row r="38" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A38" s="9" t="s">
+      <c r="A38" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B38" s="6">
-        <v>0</v>
-      </c>
-      <c r="C38" s="6">
+      <c r="B38" s="9">
+        <v>0</v>
+      </c>
+      <c r="C38" s="9">
         <v>1</v>
       </c>
       <c r="D38" s="6"/>
@@ -1601,13 +1601,13 @@
       <c r="G38" s="4"/>
     </row>
     <row r="39" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A39" s="9" t="s">
+      <c r="A39" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B39" s="6">
-        <v>0</v>
-      </c>
-      <c r="C39" s="6">
+      <c r="B39" s="9">
+        <v>0</v>
+      </c>
+      <c r="C39" s="9">
         <v>0</v>
       </c>
       <c r="D39" s="6"/>
@@ -1616,13 +1616,13 @@
       <c r="G39" s="4"/>
     </row>
     <row r="40" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A40" s="9" t="s">
+      <c r="A40" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B40" s="6">
-        <v>0</v>
-      </c>
-      <c r="C40" s="6" t="s">
+      <c r="B40" s="9">
+        <v>0</v>
+      </c>
+      <c r="C40" s="9" t="s">
         <v>184</v>
       </c>
       <c r="D40" s="6"/>
@@ -1630,1579 +1630,1585 @@
       <c r="F40" s="3"/>
       <c r="G40" s="4"/>
     </row>
-    <row r="41" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A41" s="9" t="s">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B41" s="6">
-        <v>0</v>
-      </c>
-      <c r="C41" s="6" t="s">
+      <c r="B41" s="9">
+        <v>0</v>
+      </c>
+      <c r="C41" s="9" t="s">
         <v>184</v>
       </c>
       <c r="D41" s="7"/>
       <c r="E41" s="7"/>
     </row>
     <row r="42" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A42" s="9" t="s">
+      <c r="A42" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B42" s="6">
-        <v>0</v>
-      </c>
-      <c r="C42" s="6">
+      <c r="B42" s="9">
+        <v>0</v>
+      </c>
+      <c r="C42" s="9">
         <v>1</v>
       </c>
       <c r="D42" s="4"/>
     </row>
     <row r="43" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A43" s="9" t="s">
+      <c r="A43" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="B43" s="6">
-        <v>0</v>
-      </c>
-      <c r="C43" s="6">
+      <c r="B43" s="9">
+        <v>0</v>
+      </c>
+      <c r="C43" s="9">
         <v>1</v>
       </c>
       <c r="D43" s="4"/>
     </row>
     <row r="44" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A44" s="9" t="s">
+      <c r="A44" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B44" s="6">
-        <v>0</v>
-      </c>
-      <c r="C44" s="6">
+      <c r="B44" s="9">
+        <v>0</v>
+      </c>
+      <c r="C44" s="9">
         <v>1</v>
       </c>
       <c r="D44" s="4"/>
     </row>
     <row r="45" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A45" s="9" t="s">
+      <c r="A45" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B45" s="6">
-        <v>1</v>
-      </c>
-      <c r="C45" s="6">
+      <c r="B45" s="9">
+        <v>1</v>
+      </c>
+      <c r="C45" s="9">
         <v>0</v>
       </c>
       <c r="D45" s="4"/>
     </row>
     <row r="46" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A46" s="9" t="s">
+      <c r="A46" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="B46" s="6">
-        <v>0</v>
-      </c>
-      <c r="C46" s="6">
+      <c r="B46" s="9">
+        <v>0</v>
+      </c>
+      <c r="C46" s="9">
         <v>1</v>
       </c>
       <c r="D46" s="4"/>
     </row>
     <row r="47" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A47" s="9" t="s">
+      <c r="A47" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B47" s="6">
-        <v>0</v>
-      </c>
-      <c r="C47" s="6">
+      <c r="B47" s="9">
+        <v>0</v>
+      </c>
+      <c r="C47" s="9">
         <v>0</v>
       </c>
       <c r="D47" s="4"/>
     </row>
     <row r="48" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A48" s="9" t="s">
+      <c r="A48" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B48" s="6">
-        <v>0</v>
-      </c>
-      <c r="C48" s="6">
+      <c r="B48" s="9">
+        <v>0</v>
+      </c>
+      <c r="C48" s="9">
         <v>0</v>
       </c>
       <c r="D48" s="4"/>
     </row>
     <row r="49" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A49" s="9" t="s">
+      <c r="A49" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B49" s="6">
-        <v>0</v>
-      </c>
-      <c r="C49" s="6">
+      <c r="B49" s="9">
+        <v>0</v>
+      </c>
+      <c r="C49" s="9">
         <v>0</v>
       </c>
       <c r="D49" s="4"/>
     </row>
     <row r="50" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A50" s="9" t="s">
+      <c r="A50" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="B50" s="6">
-        <v>0</v>
-      </c>
-      <c r="C50" s="6">
+      <c r="B50" s="9">
+        <v>0</v>
+      </c>
+      <c r="C50" s="9">
         <v>0</v>
       </c>
       <c r="D50" s="4"/>
     </row>
     <row r="51" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A51" s="9" t="s">
+      <c r="A51" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="B51" s="6">
-        <v>0</v>
-      </c>
-      <c r="C51" s="6">
+      <c r="B51" s="9">
+        <v>0</v>
+      </c>
+      <c r="C51" s="9">
         <v>0</v>
       </c>
       <c r="D51" s="4"/>
     </row>
     <row r="52" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A52" s="9" t="s">
+      <c r="A52" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="B52" s="6">
-        <v>0</v>
-      </c>
-      <c r="C52" s="6">
+      <c r="B52" s="9">
+        <v>0</v>
+      </c>
+      <c r="C52" s="9">
         <v>0</v>
       </c>
       <c r="D52" s="4"/>
     </row>
     <row r="53" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A53" s="9" t="s">
+      <c r="A53" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B53" s="6">
-        <v>0</v>
-      </c>
-      <c r="C53" s="6">
+      <c r="B53" s="9">
+        <v>0</v>
+      </c>
+      <c r="C53" s="9">
         <v>0</v>
       </c>
       <c r="D53" s="4"/>
     </row>
     <row r="54" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A54" s="9" t="s">
+      <c r="A54" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B54" s="6">
-        <v>0</v>
-      </c>
-      <c r="C54" s="6">
+      <c r="B54" s="9">
+        <v>0</v>
+      </c>
+      <c r="C54" s="9">
         <v>1</v>
       </c>
       <c r="D54" s="4"/>
     </row>
     <row r="55" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A55" s="9" t="s">
+      <c r="A55" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="B55" s="6">
-        <v>0</v>
-      </c>
-      <c r="C55" s="6">
+      <c r="B55" s="9">
+        <v>0</v>
+      </c>
+      <c r="C55" s="9">
         <v>0</v>
       </c>
       <c r="D55" s="4"/>
     </row>
     <row r="56" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A56" s="9" t="s">
+      <c r="A56" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="B56" s="6">
-        <v>0</v>
-      </c>
-      <c r="C56" s="6" t="s">
+      <c r="B56" s="9">
+        <v>0</v>
+      </c>
+      <c r="C56" s="9" t="s">
         <v>184</v>
       </c>
       <c r="D56" s="4"/>
     </row>
     <row r="57" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A57" s="9" t="s">
+      <c r="A57" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="B57" s="6">
-        <v>0</v>
-      </c>
-      <c r="C57" s="6" t="s">
+      <c r="B57" s="9">
+        <v>0</v>
+      </c>
+      <c r="C57" s="9" t="s">
         <v>184</v>
       </c>
       <c r="D57" s="4"/>
     </row>
-    <row r="58" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A58" s="9" t="s">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="B58" s="6">
-        <v>0</v>
-      </c>
-      <c r="C58" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A59" s="9" t="s">
+      <c r="B58" s="9">
+        <v>0</v>
+      </c>
+      <c r="C58" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="B59" s="6">
-        <v>0</v>
-      </c>
-      <c r="C59" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A60" s="9" t="s">
+      <c r="B59" s="9">
+        <v>0</v>
+      </c>
+      <c r="C59" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="B60" s="6">
-        <v>0</v>
-      </c>
-      <c r="C60" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A61" s="9" t="s">
+      <c r="B60" s="9">
+        <v>0</v>
+      </c>
+      <c r="C60" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="B61" s="6">
-        <v>0</v>
-      </c>
-      <c r="C61" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A62" s="9" t="s">
+      <c r="B61" s="9">
+        <v>0</v>
+      </c>
+      <c r="C61" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="B62" s="6">
-        <v>0</v>
-      </c>
-      <c r="C62" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A63" s="9" t="s">
+      <c r="B62" s="9">
+        <v>0</v>
+      </c>
+      <c r="C62" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="B63" s="6">
-        <v>1</v>
-      </c>
-      <c r="C63" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A64" s="9" t="s">
+      <c r="B63" s="9">
+        <v>1</v>
+      </c>
+      <c r="C63" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="B64" s="6">
-        <v>0</v>
-      </c>
-      <c r="C64" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A65" s="9" t="s">
+      <c r="B64" s="9">
+        <v>0</v>
+      </c>
+      <c r="C64" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A65" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="B65" s="6">
-        <v>0</v>
-      </c>
-      <c r="C65" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A66" s="9" t="s">
+      <c r="B65" s="9">
+        <v>0</v>
+      </c>
+      <c r="C65" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A66" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="B66" s="6">
+      <c r="B66" s="9">
         <v>2</v>
       </c>
-      <c r="C66" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A67" s="9" t="s">
+      <c r="C66" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A67" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="B67" s="6">
+      <c r="B67" s="9">
         <v>2</v>
       </c>
-      <c r="C67" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A68" s="9" t="s">
+      <c r="C67" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A68" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="B68" s="6">
-        <v>0</v>
-      </c>
-      <c r="C68" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A69" s="9" t="s">
+      <c r="B68" s="9">
+        <v>0</v>
+      </c>
+      <c r="C68" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A69" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="B69" s="6">
-        <v>0</v>
-      </c>
-      <c r="C69" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A70" s="9" t="s">
+      <c r="B69" s="9">
+        <v>0</v>
+      </c>
+      <c r="C69" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A70" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="B70" s="6">
-        <v>0</v>
-      </c>
-      <c r="C70" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A71" s="9" t="s">
+      <c r="B70" s="9">
+        <v>0</v>
+      </c>
+      <c r="C70" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A71" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="B71" s="6">
-        <v>0</v>
-      </c>
-      <c r="C71" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A72" s="9" t="s">
+      <c r="B71" s="9">
+        <v>0</v>
+      </c>
+      <c r="C71" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A72" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="B72" s="6">
-        <v>0</v>
-      </c>
-      <c r="C72" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A73" s="9" t="s">
+      <c r="B72" s="9">
+        <v>0</v>
+      </c>
+      <c r="C72" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A73" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="B73" s="6">
-        <v>0</v>
-      </c>
-      <c r="C73" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A74" s="9" t="s">
+      <c r="B73" s="9">
+        <v>0</v>
+      </c>
+      <c r="C73" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A74" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="B74" s="6">
-        <v>0</v>
-      </c>
-      <c r="C74" s="7" t="s">
+      <c r="B74" s="9">
+        <v>0</v>
+      </c>
+      <c r="C74" s="9" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A75" s="9" t="s">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A75" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="B75" s="6">
-        <v>0</v>
-      </c>
-      <c r="C75" s="7" t="s">
+      <c r="B75" s="9">
+        <v>0</v>
+      </c>
+      <c r="C75" s="9" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A76" s="9" t="s">
+      <c r="A76" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="B76" s="6">
-        <v>0</v>
-      </c>
-      <c r="C76" s="6">
+      <c r="B76" s="9">
+        <v>0</v>
+      </c>
+      <c r="C76" s="9">
         <v>1</v>
       </c>
       <c r="D76" s="3"/>
       <c r="E76" s="3"/>
       <c r="F76" s="4"/>
     </row>
-    <row r="77" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A77" s="9" t="s">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A77" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="B77" s="6">
-        <v>0</v>
-      </c>
-      <c r="C77" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A78" s="9" t="s">
+      <c r="B77" s="9">
+        <v>0</v>
+      </c>
+      <c r="C77" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A78" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="B78" s="6">
-        <v>0</v>
-      </c>
-      <c r="C78" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A79" s="9" t="s">
+      <c r="B78" s="9">
+        <v>0</v>
+      </c>
+      <c r="C78" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A79" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="B79" s="6">
-        <v>0</v>
-      </c>
-      <c r="C79" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A80" s="9" t="s">
+      <c r="B79" s="9">
+        <v>0</v>
+      </c>
+      <c r="C79" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A80" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="B80" s="6">
-        <v>0</v>
-      </c>
-      <c r="C80" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A81" s="9" t="s">
+      <c r="B80" s="9">
+        <v>0</v>
+      </c>
+      <c r="C80" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A81" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="B81" s="6">
-        <v>0</v>
-      </c>
-      <c r="C81" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A82" s="9" t="s">
+      <c r="B81" s="9">
+        <v>0</v>
+      </c>
+      <c r="C81" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A82" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="B82" s="6">
-        <v>0</v>
-      </c>
-      <c r="C82" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A83" s="9" t="s">
+      <c r="B82" s="9">
+        <v>0</v>
+      </c>
+      <c r="C82" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A83" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="B83" s="6">
-        <v>1</v>
-      </c>
-      <c r="C83" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A84" s="9" t="s">
+      <c r="B83" s="9">
+        <v>1</v>
+      </c>
+      <c r="C83" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A84" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="B84" s="6">
-        <v>0</v>
-      </c>
-      <c r="C84" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A85" s="9" t="s">
+      <c r="B84" s="9">
+        <v>0</v>
+      </c>
+      <c r="C84" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A85" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="B85" s="6">
+      <c r="B85" s="9">
         <v>2</v>
       </c>
-      <c r="C85" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A86" s="9" t="s">
+      <c r="C85" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A86" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="B86" s="6">
-        <v>1</v>
-      </c>
-      <c r="C86" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A87" s="9" t="s">
+      <c r="B86" s="9">
+        <v>1</v>
+      </c>
+      <c r="C86" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A87" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="B87" s="6">
+      <c r="B87" s="9">
         <v>3</v>
       </c>
-      <c r="C87" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A88" s="9" t="s">
+      <c r="C87" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A88" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="B88" s="6">
-        <v>0</v>
-      </c>
-      <c r="C88" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A89" s="9" t="s">
+      <c r="B88" s="9">
+        <v>0</v>
+      </c>
+      <c r="C88" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A89" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="B89" s="6">
-        <v>0</v>
-      </c>
-      <c r="C89" s="7" t="s">
+      <c r="B89" s="9">
+        <v>0</v>
+      </c>
+      <c r="C89" s="9" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A90" s="9" t="s">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A90" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="B90" s="6">
-        <v>0</v>
-      </c>
-      <c r="C90" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A91" s="9" t="s">
+      <c r="B90" s="9">
+        <v>0</v>
+      </c>
+      <c r="C90" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A91" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="B91" s="6">
-        <v>0</v>
-      </c>
-      <c r="C91" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A92" s="9" t="s">
+      <c r="B91" s="9">
+        <v>0</v>
+      </c>
+      <c r="C91" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A92" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="B92" s="6">
-        <v>0</v>
-      </c>
-      <c r="C92" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A93" s="9" t="s">
+      <c r="B92" s="9">
+        <v>0</v>
+      </c>
+      <c r="C92" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A93" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="B93" s="6">
-        <v>0</v>
-      </c>
-      <c r="C93" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A94" s="9" t="s">
+      <c r="B93" s="9">
+        <v>0</v>
+      </c>
+      <c r="C93" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A94" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="B94" s="6">
-        <v>0</v>
-      </c>
-      <c r="C94" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A95" s="9" t="s">
+      <c r="B94" s="9">
+        <v>0</v>
+      </c>
+      <c r="C94" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A95" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="B95" s="6">
-        <v>0</v>
-      </c>
-      <c r="C95" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A96" s="9" t="s">
+      <c r="B95" s="9">
+        <v>0</v>
+      </c>
+      <c r="C95" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A96" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="B96" s="6">
-        <v>0</v>
-      </c>
-      <c r="C96" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A97" s="9" t="s">
+      <c r="B96" s="9">
+        <v>0</v>
+      </c>
+      <c r="C96" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A97" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="B97" s="6">
+      <c r="B97" s="9">
         <v>2</v>
       </c>
-      <c r="C97" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A98" s="9" t="s">
+      <c r="C97" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A98" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="B98" s="6">
+      <c r="B98" s="9">
         <v>2</v>
       </c>
-      <c r="C98" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A99" s="9" t="s">
+      <c r="C98" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A99" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="B99" s="6">
+      <c r="B99" s="9">
         <v>3</v>
       </c>
-      <c r="C99" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A100" s="9" t="s">
+      <c r="C99" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A100" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="B100" s="6">
+      <c r="B100" s="9">
         <v>3</v>
       </c>
-      <c r="C100" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A101" s="9" t="s">
+      <c r="C100" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A101" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="B101" s="6">
-        <v>0</v>
-      </c>
-      <c r="C101" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A102" s="9" t="s">
+      <c r="B101" s="9">
+        <v>0</v>
+      </c>
+      <c r="C101" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A102" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="B102" s="6">
-        <v>0</v>
-      </c>
-      <c r="C102" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A103" s="9" t="s">
+      <c r="B102" s="9">
+        <v>0</v>
+      </c>
+      <c r="C102" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A103" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="B103" s="6">
-        <v>0</v>
-      </c>
-      <c r="C103" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A104" s="9" t="s">
+      <c r="B103" s="9">
+        <v>0</v>
+      </c>
+      <c r="C103" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A104" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="B104" s="6">
-        <v>0</v>
-      </c>
-      <c r="C104" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A105" s="9" t="s">
+      <c r="B104" s="9">
+        <v>0</v>
+      </c>
+      <c r="C104" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A105" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="B105" s="6">
-        <v>0</v>
-      </c>
-      <c r="C105" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A106" s="9" t="s">
+      <c r="B105" s="9">
+        <v>0</v>
+      </c>
+      <c r="C105" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A106" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="B106" s="6">
-        <v>0</v>
-      </c>
-      <c r="C106" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A107" s="9" t="s">
+      <c r="B106" s="9">
+        <v>0</v>
+      </c>
+      <c r="C106" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A107" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="B107" s="6">
-        <v>0</v>
-      </c>
-      <c r="C107" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A108" s="9" t="s">
+      <c r="B107" s="9">
+        <v>0</v>
+      </c>
+      <c r="C107" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A108" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="B108" s="6">
-        <v>0</v>
-      </c>
-      <c r="C108" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A109" s="9" t="s">
+      <c r="B108" s="9">
+        <v>0</v>
+      </c>
+      <c r="C108" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A109" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="B109" s="6">
-        <v>0</v>
-      </c>
-      <c r="C109" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A110" s="9" t="s">
+      <c r="B109" s="9">
+        <v>0</v>
+      </c>
+      <c r="C109" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A110" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="B110" s="6">
-        <v>0</v>
-      </c>
-      <c r="C110" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A111" s="9" t="s">
+      <c r="B110" s="9">
+        <v>0</v>
+      </c>
+      <c r="C110" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A111" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="B111" s="6">
-        <v>0</v>
-      </c>
-      <c r="C111" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A112" s="9" t="s">
+      <c r="B111" s="9">
+        <v>0</v>
+      </c>
+      <c r="C111" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A112" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="B112" s="6">
+      <c r="B112" s="9">
         <v>3</v>
       </c>
-      <c r="C112" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A113" s="9" t="s">
+      <c r="C112" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A113" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="B113" s="6">
-        <v>0</v>
-      </c>
-      <c r="C113" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A114" s="9" t="s">
+      <c r="B113" s="9">
+        <v>0</v>
+      </c>
+      <c r="C113" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A114" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="B114" s="6">
-        <v>0</v>
-      </c>
-      <c r="C114" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A115" s="9" t="s">
+      <c r="B114" s="9">
+        <v>0</v>
+      </c>
+      <c r="C114" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A115" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="B115" s="6">
-        <v>0</v>
-      </c>
-      <c r="C115" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A116" s="9" t="s">
+      <c r="B115" s="9">
+        <v>0</v>
+      </c>
+      <c r="C115" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A116" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="B116" s="6">
-        <v>0</v>
-      </c>
-      <c r="C116" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A117" s="9" t="s">
+      <c r="B116" s="9">
+        <v>0</v>
+      </c>
+      <c r="C116" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A117" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="B117" s="6">
-        <v>0</v>
-      </c>
-      <c r="C117" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A118" s="9" t="s">
+      <c r="B117" s="9">
+        <v>0</v>
+      </c>
+      <c r="C117" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A118" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="B118" s="6">
-        <v>0</v>
-      </c>
-      <c r="C118" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A119" s="9" t="s">
+      <c r="B118" s="9">
+        <v>0</v>
+      </c>
+      <c r="C118" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A119" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="B119" s="6">
-        <v>0</v>
-      </c>
-      <c r="C119" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A120" s="9" t="s">
+      <c r="B119" s="9">
+        <v>0</v>
+      </c>
+      <c r="C119" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A120" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="B120" s="6">
+      <c r="B120" s="9">
         <v>3</v>
       </c>
-      <c r="C120" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A121" s="9" t="s">
+      <c r="C120" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A121" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="B121" s="6">
+      <c r="B121" s="9">
         <v>2</v>
       </c>
-      <c r="C121" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A122" s="9" t="s">
+      <c r="C121" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A122" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="B122" s="6">
-        <v>0</v>
-      </c>
-      <c r="C122" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A123" s="9" t="s">
+      <c r="B122" s="9">
+        <v>0</v>
+      </c>
+      <c r="C122" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A123" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="B123" s="6">
-        <v>0</v>
-      </c>
-      <c r="C123" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A124" s="9" t="s">
+      <c r="B123" s="9">
+        <v>0</v>
+      </c>
+      <c r="C123" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A124" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="B124" s="6">
-        <v>0</v>
-      </c>
-      <c r="C124" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A125" s="9" t="s">
+      <c r="B124" s="9">
+        <v>0</v>
+      </c>
+      <c r="C124" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A125" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="B125" s="6">
-        <v>0</v>
-      </c>
-      <c r="C125" s="7" t="s">
+      <c r="B125" s="9">
+        <v>0</v>
+      </c>
+      <c r="C125" s="9" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="126" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A126" s="9" t="s">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A126" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="B126" s="6">
-        <v>0</v>
-      </c>
-      <c r="C126" s="7" t="s">
+      <c r="B126" s="9">
+        <v>0</v>
+      </c>
+      <c r="C126" s="9" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="127" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A127" s="9" t="s">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A127" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="B127" s="6">
-        <v>0</v>
-      </c>
-      <c r="C127" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A128" s="9" t="s">
+      <c r="B127" s="9">
+        <v>0</v>
+      </c>
+      <c r="C127" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A128" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="B128" s="6">
-        <v>0</v>
-      </c>
-      <c r="C128" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A129" s="9" t="s">
+      <c r="B128" s="9">
+        <v>0</v>
+      </c>
+      <c r="C128" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A129" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="B129" s="6">
-        <v>0</v>
-      </c>
-      <c r="C129" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A130" s="9" t="s">
+      <c r="B129" s="9">
+        <v>0</v>
+      </c>
+      <c r="C129" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A130" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="B130" s="6">
-        <v>0</v>
-      </c>
-      <c r="C130" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A131" s="9" t="s">
+      <c r="B130" s="9">
+        <v>0</v>
+      </c>
+      <c r="C130" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A131" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="B131" s="6">
-        <v>0</v>
-      </c>
-      <c r="C131" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A132" s="9" t="s">
+      <c r="B131" s="9">
+        <v>0</v>
+      </c>
+      <c r="C131" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A132" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="B132" s="6">
-        <v>1</v>
-      </c>
-      <c r="C132" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A133" s="9" t="s">
+      <c r="B132" s="9">
+        <v>1</v>
+      </c>
+      <c r="C132" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A133" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="B133" s="6">
-        <v>0</v>
-      </c>
-      <c r="C133" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A134" s="9" t="s">
+      <c r="B133" s="9">
+        <v>0</v>
+      </c>
+      <c r="C133" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A134" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="B134" s="6">
+      <c r="B134" s="9">
         <v>3</v>
       </c>
-      <c r="C134" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A135" s="9" t="s">
+      <c r="C134" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A135" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="B135" s="6">
+      <c r="B135" s="9">
         <v>3</v>
       </c>
-      <c r="C135" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A136" s="9" t="s">
+      <c r="C135" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A136" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="B136" s="6">
+      <c r="B136" s="9">
         <v>3</v>
       </c>
-      <c r="C136" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A137" s="9" t="s">
+      <c r="C136" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A137" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="B137" s="6">
-        <v>0</v>
-      </c>
-      <c r="C137" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A138" s="9" t="s">
+      <c r="B137" s="9">
+        <v>0</v>
+      </c>
+      <c r="C137" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A138" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="B138" s="6">
-        <v>0</v>
-      </c>
-      <c r="C138" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A139" s="9" t="s">
+      <c r="B138" s="9">
+        <v>0</v>
+      </c>
+      <c r="C138" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A139" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="B139" s="6">
-        <v>0</v>
-      </c>
-      <c r="C139" s="7" t="s">
+      <c r="B139" s="9">
+        <v>0</v>
+      </c>
+      <c r="C139" s="9" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="140" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A140" s="9" t="s">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A140" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="B140" s="6">
-        <v>0</v>
-      </c>
-      <c r="C140" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A141" s="9" t="s">
+      <c r="B140" s="9">
+        <v>0</v>
+      </c>
+      <c r="C140" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A141" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="B141" s="6">
-        <v>0</v>
-      </c>
-      <c r="C141" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A142" s="9" t="s">
+      <c r="B141" s="9">
+        <v>0</v>
+      </c>
+      <c r="C141" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A142" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="B142" s="6">
-        <v>0</v>
-      </c>
-      <c r="C142" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A143" s="9" t="s">
+      <c r="B142" s="9">
+        <v>0</v>
+      </c>
+      <c r="C142" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A143" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="B143" s="6">
-        <v>0</v>
-      </c>
-      <c r="C143" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A144" s="9" t="s">
+      <c r="B143" s="9">
+        <v>0</v>
+      </c>
+      <c r="C143" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A144" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="B144" s="6">
-        <v>0</v>
-      </c>
-      <c r="C144" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A145" s="9" t="s">
+      <c r="B144" s="9">
+        <v>0</v>
+      </c>
+      <c r="C144" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A145" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="B145" s="6">
-        <v>0</v>
-      </c>
-      <c r="C145" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A146" s="9" t="s">
+      <c r="B145" s="9">
+        <v>0</v>
+      </c>
+      <c r="C145" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A146" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="B146" s="6">
+      <c r="B146" s="9">
         <v>3</v>
       </c>
-      <c r="C146" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A147" s="9" t="s">
+      <c r="C146" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A147" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="B147" s="6">
+      <c r="B147" s="9">
         <v>3</v>
       </c>
-      <c r="C147" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A148" s="9" t="s">
+      <c r="C147" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A148" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="B148" s="6">
+      <c r="B148" s="9">
         <v>2</v>
       </c>
-      <c r="C148" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A149" s="9" t="s">
+      <c r="C148" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A149" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="B149" s="6">
+      <c r="B149" s="9">
         <v>3</v>
       </c>
-      <c r="C149" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A150" s="9" t="s">
+      <c r="C149" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A150" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="B150" s="6">
+      <c r="B150" s="9">
         <v>3</v>
       </c>
-      <c r="C150" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A151" s="9" t="s">
+      <c r="C150" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A151" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="B151" s="6">
-        <v>0</v>
-      </c>
-      <c r="C151" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A152" s="9" t="s">
+      <c r="B151" s="9">
+        <v>0</v>
+      </c>
+      <c r="C151" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A152" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="B152" s="6">
-        <v>0</v>
-      </c>
-      <c r="C152" s="7" t="s">
+      <c r="B152" s="9">
+        <v>0</v>
+      </c>
+      <c r="C152" s="9" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="153" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A153" s="9" t="s">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A153" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="B153" s="6">
-        <v>0</v>
-      </c>
-      <c r="C153" s="7" t="s">
+      <c r="B153" s="9">
+        <v>0</v>
+      </c>
+      <c r="C153" s="9" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="154" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A154" s="9" t="s">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A154" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="B154" s="6">
-        <v>0</v>
-      </c>
-      <c r="C154" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A155" s="9" t="s">
+      <c r="B154" s="9">
+        <v>0</v>
+      </c>
+      <c r="C154" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A155" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="B155" s="6">
-        <v>0</v>
-      </c>
-      <c r="C155" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A156" s="9" t="s">
+      <c r="B155" s="9">
+        <v>0</v>
+      </c>
+      <c r="C155" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A156" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="B156" s="6">
-        <v>0</v>
-      </c>
-      <c r="C156" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A157" s="9" t="s">
+      <c r="B156" s="9">
+        <v>0</v>
+      </c>
+      <c r="C156" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A157" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="B157" s="6">
-        <v>0</v>
-      </c>
-      <c r="C157" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A158" s="9" t="s">
+      <c r="B157" s="9">
+        <v>0</v>
+      </c>
+      <c r="C157" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A158" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="B158" s="6">
-        <v>0</v>
-      </c>
-      <c r="C158" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A159" s="9" t="s">
+      <c r="B158" s="9">
+        <v>0</v>
+      </c>
+      <c r="C158" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A159" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="B159" s="6">
-        <v>0</v>
-      </c>
-      <c r="C159" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A160" s="9" t="s">
+      <c r="B159" s="9">
+        <v>0</v>
+      </c>
+      <c r="C159" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A160" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="B160" s="6">
-        <v>0</v>
-      </c>
-      <c r="C160" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A161" s="9" t="s">
+      <c r="B160" s="9">
+        <v>0</v>
+      </c>
+      <c r="C160" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A161" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="B161" s="6">
-        <v>0</v>
-      </c>
-      <c r="C161" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A162" s="9" t="s">
+      <c r="B161" s="9">
+        <v>0</v>
+      </c>
+      <c r="C161" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A162" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="B162" s="6">
+      <c r="B162" s="9">
         <v>2</v>
       </c>
-      <c r="C162" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A163" s="9" t="s">
+      <c r="C162" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A163" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="B163" s="6">
+      <c r="B163" s="9">
         <v>2</v>
       </c>
-      <c r="C163" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A164" s="9" t="s">
+      <c r="C163" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A164" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="B164" s="6">
+      <c r="B164" s="9">
         <v>3</v>
       </c>
-      <c r="C164" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A165" s="9" t="s">
+      <c r="C164" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A165" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="B165" s="6">
+      <c r="B165" s="9">
         <v>3</v>
       </c>
-      <c r="C165" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A166" s="9" t="s">
+      <c r="C165" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A166" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="B166" s="6">
-        <v>0</v>
-      </c>
-      <c r="C166" s="7" t="s">
+      <c r="B166" s="9">
+        <v>0</v>
+      </c>
+      <c r="C166" s="9" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="167" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A167" s="9" t="s">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A167" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="B167" s="6">
-        <v>0</v>
-      </c>
-      <c r="C167" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A168" s="9" t="s">
+      <c r="B167" s="9">
+        <v>0</v>
+      </c>
+      <c r="C167" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A168" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="B168" s="6">
-        <v>0</v>
-      </c>
-      <c r="C168" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A169" s="9" t="s">
+      <c r="B168" s="9">
+        <v>0</v>
+      </c>
+      <c r="C168" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A169" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="B169" s="6">
-        <v>0</v>
-      </c>
-      <c r="C169" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A170" s="9" t="s">
+      <c r="B169" s="9">
+        <v>0</v>
+      </c>
+      <c r="C169" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A170" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="B170" s="6">
-        <v>0</v>
-      </c>
-      <c r="C170" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A171" s="9" t="s">
+      <c r="B170" s="9">
+        <v>0</v>
+      </c>
+      <c r="C170" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A171" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="B171" s="6">
-        <v>0</v>
-      </c>
-      <c r="C171" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A172" s="9" t="s">
+      <c r="B171" s="9">
+        <v>0</v>
+      </c>
+      <c r="C171" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A172" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="B172" s="6">
-        <v>0</v>
-      </c>
-      <c r="C172" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A173" s="9" t="s">
+      <c r="B172" s="9">
+        <v>0</v>
+      </c>
+      <c r="C172" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A173" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="B173" s="6">
-        <v>0</v>
-      </c>
-      <c r="C173" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A174" s="9" t="s">
+      <c r="B173" s="9">
+        <v>0</v>
+      </c>
+      <c r="C173" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A174" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="B174" s="6">
-        <v>0</v>
-      </c>
-      <c r="C174" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A175" s="9" t="s">
+      <c r="B174" s="9">
+        <v>0</v>
+      </c>
+      <c r="C174" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A175" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="B175" s="6">
+      <c r="B175" s="9">
         <v>3</v>
       </c>
-      <c r="C175" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A176" s="9" t="s">
+      <c r="C175" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A176" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="B176" s="6">
+      <c r="B176" s="9">
         <v>3</v>
       </c>
-      <c r="C176" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A177" s="9" t="s">
+      <c r="C176" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A177" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="B177" s="6">
-        <v>0</v>
-      </c>
-      <c r="C177" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A178" s="9" t="s">
+      <c r="B177" s="9">
+        <v>0</v>
+      </c>
+      <c r="C177" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A178" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="B178" s="6">
-        <v>0</v>
-      </c>
-      <c r="C178" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A179" s="9" t="s">
+      <c r="B178" s="9">
+        <v>0</v>
+      </c>
+      <c r="C178" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A179" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="B179" s="6">
-        <v>0</v>
-      </c>
-      <c r="C179" s="7" t="s">
+      <c r="B179" s="9">
+        <v>0</v>
+      </c>
+      <c r="C179" s="9" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="180" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A180" s="9" t="s">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A180" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="B180" s="6">
-        <v>0</v>
-      </c>
-      <c r="C180" s="7" t="s">
+      <c r="B180" s="9">
+        <v>0</v>
+      </c>
+      <c r="C180" s="9" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="181" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A181" s="9" t="s">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A181" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="B181" s="6">
-        <v>0</v>
-      </c>
-      <c r="C181" s="7" t="s">
+      <c r="B181" s="9">
+        <v>0</v>
+      </c>
+      <c r="C181" s="9" t="s">
         <v>184</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{4278a402-1a9e-4eb9-8414-ffb55a5fcf1e}" enabled="0" method="" siteId="{4278a402-1a9e-4eb9-8414-ffb55a5fcf1e}" removed="1"/>
+</clbl:labelList>
 </file>